--- a/latest_projections/DailyProjections_citywide20210929.xlsx
+++ b/latest_projections/DailyProjections_citywide20210929.xlsx
@@ -458,57 +458,57 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3674 (2802, 4755)</t>
+          <t>4372 (3283, 5808)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1296 (1129, 1477)</t>
+          <t>1297 (1126, 1489)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>72 (49, 98)</t>
+          <t>89 (60, 124)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>57 (34, 83)</t>
+          <t>70 (42, 104)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>15 (10, 21)</t>
+          <t>18 (12, 26)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>12 (7, 17)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>11 (9, 14)</t>
+          <t>12 (9, 15)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>69 (47, 95)</t>
+          <t>87 (59, 122)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>54 (32, 79)</t>
+          <t>68 (40, 103)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>19 (12, 26)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>12 (7, 16)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
     </row>
@@ -535,57 +535,57 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3597 (2686, 4717)</t>
+          <t>4273 (3160, 5745)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1281 (1099, 1476)</t>
+          <t>1281 (1097, 1487)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>71 (48, 98)</t>
+          <t>88 (59, 123)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>56 (33, 82)</t>
+          <t>70 (41, 103)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>15 (10, 21)</t>
+          <t>18 (12, 26)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>12 (7, 17)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>11 (9, 14)</t>
+          <t>12 (9, 15)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>69 (47, 95)</t>
+          <t>87 (59, 122)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>54 (32, 79)</t>
+          <t>68 (40, 102)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>18 (12, 26)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>12 (7, 16)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
     </row>
@@ -612,57 +612,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3530 (2579, 4694)</t>
+          <t>4190 (3042, 5709)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1266 (1066, 1476)</t>
+          <t>1265 (1066, 1486)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>70 (47, 98)</t>
+          <t>87 (59, 123)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>55 (32, 82)</t>
+          <t>69 (40, 103)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>15 (10, 21)</t>
+          <t>18 (12, 26)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>12 (8, 17)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>11 (9, 14)</t>
+          <t>12 (9, 15)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>69 (47, 95)</t>
+          <t>87 (58, 122)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>54 (32, 80)</t>
+          <t>68 (40, 102)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>18 (12, 26)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>12 (7, 16)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
     </row>
@@ -689,57 +689,57 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3474 (2481, 4678)</t>
+          <t>4113 (2932, 5685)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1250 (1034, 1475)</t>
+          <t>1249 (1036, 1484)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>69 (46, 97)</t>
+          <t>86 (58, 123)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>54 (32, 81)</t>
+          <t>68 (40, 103)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>15 (10, 21)</t>
+          <t>18 (11, 26)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>12 (7, 17)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>11 (9, 14)</t>
+          <t>12 (9, 15)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>69 (47, 95)</t>
+          <t>87 (58, 122)</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>54 (32, 80)</t>
+          <t>68 (40, 102)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>18 (12, 26)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>12 (7, 16)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
     </row>
@@ -766,57 +766,57 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3418 (2388, 4666)</t>
+          <t>4043 (2822, 5660)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1234 (1001, 1473)</t>
+          <t>1232 (1006, 1482)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>68 (46, 97)</t>
+          <t>85 (56, 122)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>53 (31, 81)</t>
+          <t>67 (39, 102)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>18 (11, 26)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>12 (7, 17)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>11 (9, 14)</t>
+          <t>12 (9, 15)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>70 (47, 95)</t>
+          <t>87 (58, 122)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>54 (32, 80)</t>
+          <t>68 (40, 102)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>18 (12, 26)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>12 (7, 16)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
     </row>
@@ -843,57 +843,57 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3369 (2303, 4652)</t>
+          <t>3979 (2722, 5645)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1217 (968, 1469)</t>
+          <t>1214 (975, 1478)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>67 (44, 97)</t>
+          <t>84 (55, 122)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>52 (30, 80)</t>
+          <t>65 (38, 101)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>18 (11, 26)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>12 (7, 17)</t>
+          <t>14 (9, 20)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>11 (9, 14)</t>
+          <t>12 (9, 15)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>70 (47, 96)</t>
+          <t>87 (58, 122)</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>55 (32, 80)</t>
+          <t>68 (40, 102)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>18 (11, 26)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>12 (7, 16)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
     </row>
@@ -920,57 +920,57 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3322 (2216, 4645)</t>
+          <t>3913 (2626, 5622)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1199 (935, 1465)</t>
+          <t>1194 (943, 1472)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>66 (43, 96)</t>
+          <t>82 (54, 121)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>51 (29, 79)</t>
+          <t>64 (37, 101)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>18 (11, 26)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>12 (7, 17)</t>
+          <t>14 (9, 20)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>11 (9, 14)</t>
+          <t>12 (9, 15)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>70 (47, 96)</t>
+          <t>86 (58, 121)</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>55 (32, 80)</t>
+          <t>68 (39, 102)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>18 (11, 26)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>12 (7, 16)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
     </row>
@@ -997,57 +997,57 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3286 (2148, 4648)</t>
+          <t>3863 (2543, 5623)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1180 (900, 1460)</t>
+          <t>1174 (910, 1466)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>65 (42, 95)</t>
+          <t>81 (52, 121)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>50 (28, 79)</t>
+          <t>63 (36, 100)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>18 (11, 25)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>14 (9, 20)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>11 (9, 14)</t>
+          <t>11 (9, 15)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>70 (47, 96)</t>
+          <t>86 (58, 121)</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>55 (32, 80)</t>
+          <t>68 (39, 102)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>18 (11, 26)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>12 (7, 16)</t>
+          <t>14 (9, 20)</t>
         </is>
       </c>
     </row>
@@ -1074,57 +1074,57 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3263 (2083, 4669)</t>
+          <t>3823 (2468, 5637)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1161 (866, 1455)</t>
+          <t>1154 (878, 1459)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>64 (41, 95)</t>
+          <t>80 (51, 120)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>49 (27, 78)</t>
+          <t>62 (34, 100)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>17 (11, 25)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>14 (8, 20)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>11 (9, 14)</t>
+          <t>11 (9, 15)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>70 (47, 96)</t>
+          <t>86 (58, 121)</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>55 (32, 81)</t>
+          <t>67 (39, 102)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>18 (11, 26)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>12 (7, 16)</t>
+          <t>14 (9, 20)</t>
         </is>
       </c>
     </row>
@@ -1151,57 +1151,57 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3233 (2022, 4683)</t>
+          <t>3780 (2396, 5648)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1143 (834, 1450)</t>
+          <t>1135 (846, 1452)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>63 (39, 95)</t>
+          <t>79 (49, 120)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>48 (26, 78)</t>
+          <t>61 (33, 99)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>17 (11, 25)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>11 (8, 14)</t>
+          <t>11 (8, 15)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>70 (47, 96)</t>
+          <t>86 (57, 121)</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>55 (32, 81)</t>
+          <t>67 (39, 102)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>18 (11, 26)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>12 (7, 17)</t>
+          <t>14 (9, 20)</t>
         </is>
       </c>
     </row>
@@ -1228,57 +1228,57 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3208 (1959, 4698)</t>
+          <t>3739 (2325, 5656)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1127 (803, 1447)</t>
+          <t>1117 (816, 1448)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>62 (38, 94)</t>
+          <t>77 (48, 119)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>47 (25, 78)</t>
+          <t>60 (32, 99)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>17 (10, 25)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>13 (8, 20)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>11 (8, 15)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>86 (57, 121)</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>67 (39, 102)</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>18 (11, 26)</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>14 (9, 20)</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>11 (7, 16)</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>11 (8, 15)</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>69 (47, 96)</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>54 (32, 81)</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>15 (9, 21)</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>12 (7, 17)</t>
         </is>
       </c>
     </row>
@@ -1305,32 +1305,32 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3180 (1903, 4710)</t>
+          <t>3700 (2258, 5658)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1112 (774, 1445)</t>
+          <t>1099 (787, 1444)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>61 (37, 94)</t>
+          <t>76 (47, 119)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>46 (24, 77)</t>
+          <t>59 (31, 99)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>14 (8, 20)</t>
+          <t>16 (10, 25)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1340,22 +1340,22 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>69 (46, 96)</t>
+          <t>85 (57, 121)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>54 (31, 81)</t>
+          <t>67 (39, 102)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>18 (11, 26)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>12 (7, 16)</t>
+          <t>14 (9, 20)</t>
         </is>
       </c>
     </row>
@@ -1382,34 +1382,34 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3153 (1850, 4722)</t>
+          <t>3656 (2189, 5664)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1098 (747, 1443)</t>
+          <t>1083 (760, 1441)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>60 (36, 94)</t>
+          <t>75 (45, 119)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>46 (23, 77)</t>
+          <t>58 (30, 99)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>16 (10, 25)</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>13 (8, 20)</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>11 (6, 16)</t>
-        </is>
-      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>11 (8, 15)</t>
@@ -1417,22 +1417,22 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>69 (46, 96)</t>
+          <t>85 (56, 121)</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>54 (31, 80)</t>
+          <t>67 (38, 102)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>18 (11, 26)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>12 (7, 17)</t>
+          <t>14 (9, 20)</t>
         </is>
       </c>
     </row>
@@ -1459,34 +1459,34 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3122 (1791, 4734)</t>
+          <t>3610 (2124, 5669)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1084 (721, 1442)</t>
+          <t>1068 (735, 1438)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>59 (35, 94)</t>
+          <t>75 (44, 120)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>45 (23, 77)</t>
+          <t>57 (30, 99)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>16 (10, 25)</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>13 (8, 20)</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>10 (6, 16)</t>
-        </is>
-      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>11 (8, 15)</t>
@@ -1494,22 +1494,22 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>68 (45, 96)</t>
+          <t>85 (56, 121)</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>53 (31, 80)</t>
+          <t>66 (38, 101)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>18 (11, 26)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>12 (7, 16)</t>
+          <t>14 (9, 20)</t>
         </is>
       </c>
     </row>
@@ -1536,32 +1536,32 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3846 (2941, 4963)</t>
+          <t>4443 (3397, 5823)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1293 (1129, 1473)</t>
+          <t>1315 (1148, 1499)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>75 (51, 102)</t>
+          <t>91 (61, 126)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>59 (35, 86)</t>
+          <t>72 (42, 106)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>16 (10, 22)</t>
+          <t>19 (12, 27)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>12 (8, 18)</t>
+          <t>15 (9, 21)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1571,22 +1571,22 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>73 (50, 100)</t>
+          <t>94 (62, 133)</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>57 (33, 83)</t>
+          <t>73 (42, 111)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>16 (10, 22)</t>
+          <t>20 (13, 29)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>12 (8, 17)</t>
+          <t>16 (10, 23)</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3749 (2804, 4894)</t>
+          <t>4323 (3248, 5737)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1278 (1098, 1472)</t>
+          <t>1300 (1121, 1496)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>74 (50, 102)</t>
+          <t>90 (60, 126)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>58 (34, 85)</t>
+          <t>71 (42, 105)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>16 (10, 22)</t>
+          <t>19 (12, 27)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>12 (8, 18)</t>
+          <t>15 (9, 21)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1648,22 +1648,22 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>73 (50, 100)</t>
+          <t>93 (62, 132)</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>57 (34, 83)</t>
+          <t>72 (41, 110)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>16 (10, 22)</t>
+          <t>20 (13, 29)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>12 (8, 17)</t>
+          <t>16 (10, 23)</t>
         </is>
       </c>
     </row>
@@ -1690,32 +1690,32 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3659 (2679, 4847)</t>
+          <t>4220 (3111, 5676)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1261 (1064, 1471)</t>
+          <t>1283 (1091, 1493)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>73 (49, 102)</t>
+          <t>89 (59, 125)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>57 (34, 85)</t>
+          <t>70 (41, 104)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>16 (10, 22)</t>
+          <t>19 (12, 27)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>12 (8, 18)</t>
+          <t>15 (9, 21)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1725,22 +1725,22 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>73 (50, 100)</t>
+          <t>92 (61, 131)</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>57 (34, 84)</t>
+          <t>72 (41, 109)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>16 (10, 22)</t>
+          <t>20 (12, 29)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>12 (8, 17)</t>
+          <t>16 (10, 23)</t>
         </is>
       </c>
     </row>
@@ -1767,32 +1767,32 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3586 (2571, 4809)</t>
+          <t>4127 (2981, 5618)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1243 (1029, 1467)</t>
+          <t>1265 (1060, 1488)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>72 (48, 101)</t>
+          <t>88 (58, 124)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>56 (33, 84)</t>
+          <t>69 (40, 103)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>16 (10, 22)</t>
+          <t>19 (12, 27)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>12 (8, 18)</t>
+          <t>15 (9, 21)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1802,22 +1802,22 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>73 (50, 100)</t>
+          <t>92 (61, 130)</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>57 (34, 84)</t>
+          <t>71 (41, 108)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>16 (10, 22)</t>
+          <t>20 (12, 28)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>12 (8, 17)</t>
+          <t>15 (10, 22)</t>
         </is>
       </c>
     </row>
@@ -1844,32 +1844,32 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3515 (2463, 4778)</t>
+          <t>4039 (2863, 5572)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1224 (994, 1462)</t>
+          <t>1245 (1028, 1481)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>71 (47, 100)</t>
+          <t>86 (57, 123)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>55 (32, 84)</t>
+          <t>67 (39, 102)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>16 (10, 22)</t>
+          <t>19 (12, 27)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>12 (8, 18)</t>
+          <t>15 (9, 21)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1879,22 +1879,22 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>73 (50, 100)</t>
+          <t>91 (61, 129)</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>57 (34, 84)</t>
+          <t>71 (41, 108)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>16 (10, 22)</t>
+          <t>20 (12, 28)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>12 (8, 17)</t>
+          <t>15 (10, 22)</t>
         </is>
       </c>
     </row>
@@ -1921,32 +1921,32 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3452 (2365, 4751)</t>
+          <t>3959 (2751, 5521)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1203 (958, 1454)</t>
+          <t>1223 (994, 1472)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>69 (46, 100)</t>
+          <t>84 (55, 122)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>54 (31, 83)</t>
+          <t>65 (37, 101)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>16 (10, 22)</t>
+          <t>19 (12, 27)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>12 (8, 18)</t>
+          <t>15 (9, 21)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1956,22 +1956,22 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>73 (50, 100)</t>
+          <t>91 (60, 128)</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>57 (34, 84)</t>
+          <t>70 (40, 107)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>16 (10, 22)</t>
+          <t>20 (12, 28)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>12 (8, 17)</t>
+          <t>15 (10, 22)</t>
         </is>
       </c>
     </row>
@@ -1998,32 +1998,32 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3392 (2269, 4723)</t>
+          <t>3880 (2643, 5486)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1180 (921, 1443)</t>
+          <t>1200 (959, 1461)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>68 (44, 99)</t>
+          <t>83 (54, 121)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>52 (29, 82)</t>
+          <t>64 (36, 100)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>15 (10, 22)</t>
+          <t>18 (12, 26)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>12 (8, 17)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2033,22 +2033,22 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>73 (50, 100)</t>
+          <t>90 (60, 128)</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>57 (34, 84)</t>
+          <t>70 (40, 107)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>16 (10, 22)</t>
+          <t>19 (12, 28)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>12 (8, 17)</t>
+          <t>15 (9, 22)</t>
         </is>
       </c>
     </row>
@@ -2075,32 +2075,32 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3337 (2187, 4702)</t>
+          <t>3808 (2543, 5445)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1156 (884, 1431)</t>
+          <t>1176 (922, 1448)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>66 (43, 98)</t>
+          <t>81 (52, 119)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>51 (28, 81)</t>
+          <t>62 (35, 98)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>15 (10, 22)</t>
+          <t>18 (11, 26)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>12 (7, 17)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2110,22 +2110,22 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>73 (49, 100)</t>
+          <t>90 (60, 127)</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>57 (34, 84)</t>
+          <t>70 (40, 106)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>16 (10, 22)</t>
+          <t>19 (12, 28)</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>12 (8, 17)</t>
+          <t>15 (9, 22)</t>
         </is>
       </c>
     </row>
@@ -2152,32 +2152,32 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3284 (2104, 4687)</t>
+          <t>3744 (2453, 5416)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1133 (847, 1420)</t>
+          <t>1152 (886, 1434)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>65 (42, 97)</t>
+          <t>79 (50, 118)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>50 (27, 80)</t>
+          <t>60 (33, 97)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>18 (11, 26)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>12 (7, 17)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2187,22 +2187,22 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>73 (49, 100)</t>
+          <t>90 (59, 127)</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>57 (33, 84)</t>
+          <t>70 (40, 106)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>16 (10, 22)</t>
+          <t>19 (12, 28)</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>12 (8, 17)</t>
+          <t>15 (9, 22)</t>
         </is>
       </c>
     </row>
@@ -2229,32 +2229,32 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3237 (2031, 4670)</t>
+          <t>3677 (2362, 5377)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1110 (811, 1409)</t>
+          <t>1128 (851, 1420)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>64 (40, 96)</t>
+          <t>77 (49, 117)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>48 (26, 79)</t>
+          <t>59 (32, 96)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>18 (11, 26)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>14 (8, 21)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2264,22 +2264,22 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>73 (49, 100)</t>
+          <t>89 (59, 126)</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>57 (33, 84)</t>
+          <t>69 (40, 105)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>16 (10, 22)</t>
+          <t>19 (12, 27)</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>12 (8, 17)</t>
+          <t>15 (9, 22)</t>
         </is>
       </c>
     </row>
@@ -2306,32 +2306,32 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3187 (1961, 4652)</t>
+          <t>3609 (2276, 5341)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1089 (777, 1398)</t>
+          <t>1104 (817, 1408)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>62 (39, 95)</t>
+          <t>75 (47, 116)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>47 (25, 78)</t>
+          <t>57 (31, 95)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>17 (11, 26)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>14 (8, 20)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2341,22 +2341,22 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>72 (49, 100)</t>
+          <t>89 (59, 126)</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>57 (33, 84)</t>
+          <t>69 (39, 105)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>16 (10, 22)</t>
+          <t>19 (12, 27)</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>12 (8, 17)</t>
+          <t>15 (9, 22)</t>
         </is>
       </c>
     </row>
@@ -2383,32 +2383,32 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3143 (1885, 4639)</t>
+          <t>3546 (2199, 5311)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1069 (745, 1388)</t>
+          <t>1082 (785, 1395)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>61 (38, 94)</t>
+          <t>74 (45, 115)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>46 (24, 77)</t>
+          <t>56 (30, 94)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2418,22 +2418,22 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>72 (48, 100)</t>
+          <t>88 (58, 125)</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>56 (32, 84)</t>
+          <t>69 (39, 105)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>16 (10, 22)</t>
+          <t>19 (12, 27)</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>12 (8, 17)</t>
+          <t>15 (9, 21)</t>
         </is>
       </c>
     </row>
@@ -2460,32 +2460,32 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3097 (1818, 4621)</t>
+          <t>3484 (2117, 5273)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1049 (714, 1379)</t>
+          <t>1060 (754, 1383)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>60 (36, 94)</t>
+          <t>72 (44, 114)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>45 (23, 76)</t>
+          <t>54 (28, 93)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>14 (8, 21)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2495,22 +2495,22 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>71 (48, 100)</t>
+          <t>88 (57, 125)</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>56 (32, 84)</t>
+          <t>68 (39, 104)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>15 (10, 22)</t>
+          <t>19 (12, 27)</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>12 (8, 17)</t>
+          <t>15 (9, 21)</t>
         </is>
       </c>
     </row>
@@ -2537,32 +2537,32 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3046 (1752, 4602)</t>
+          <t>3419 (2042, 5235)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1030 (686, 1370)</t>
+          <t>1039 (725, 1372)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>59 (35, 93)</t>
+          <t>71 (42, 113)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>44 (22, 76)</t>
+          <t>53 (27, 92)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>14 (8, 21)</t>
+          <t>16 (10, 25)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>11 (6, 16)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2572,22 +2572,22 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>71 (47, 100)</t>
+          <t>87 (57, 124)</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>55 (32, 83)</t>
+          <t>67 (38, 104)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>15 (10, 22)</t>
+          <t>19 (12, 27)</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>12 (8, 17)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
     </row>
@@ -2689,42 +2689,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>789 (492, 1215)</t>
+          <t>986 (607, 1538)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>610 (311, 1029)</t>
+          <t>764 (384, 1305)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>158 (91, 256)</t>
+          <t>194 (112, 321)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>104 (63, 160)</t>
+          <t>132 (80, 202)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>789 (492, 1215)</t>
+          <t>986 (607, 1538)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>610 (311, 1029)</t>
+          <t>764 (384, 1305)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>158 (91, 256)</t>
+          <t>194 (112, 321)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>104 (63, 160)</t>
+          <t>132 (80, 202)</t>
         </is>
       </c>
     </row>
@@ -2751,42 +2751,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>791 (493, 1220)</t>
+          <t>987 (608, 1540)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>611 (312, 1034)</t>
+          <t>766 (385, 1307)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>158 (91, 256)</t>
+          <t>194 (112, 320)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>105 (64, 161)</t>
+          <t>132 (80, 202)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>791 (493, 1220)</t>
+          <t>987 (608, 1540)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>611 (312, 1034)</t>
+          <t>766 (385, 1307)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>158 (91, 256)</t>
+          <t>194 (112, 320)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>105 (64, 161)</t>
+          <t>132 (80, 202)</t>
         </is>
       </c>
     </row>
@@ -2813,42 +2813,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>793 (493, 1225)</t>
+          <t>988 (608, 1542)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>612 (312, 1038)</t>
+          <t>767 (386, 1308)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>159 (91, 257)</t>
+          <t>194 (112, 320)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>105 (64, 161)</t>
+          <t>132 (79, 202)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>793 (493, 1225)</t>
+          <t>988 (608, 1542)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>612 (312, 1038)</t>
+          <t>767 (386, 1308)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>159 (91, 257)</t>
+          <t>194 (112, 320)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>105 (64, 161)</t>
+          <t>132 (79, 202)</t>
         </is>
       </c>
     </row>
@@ -2875,42 +2875,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>793 (492, 1229)</t>
+          <t>988 (607, 1544)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>612 (311, 1041)</t>
+          <t>768 (386, 1309)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>159 (92, 258)</t>
+          <t>194 (112, 320)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>106 (64, 162)</t>
+          <t>132 (79, 202)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>793 (492, 1229)</t>
+          <t>988 (607, 1544)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>612 (311, 1041)</t>
+          <t>768 (386, 1309)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>159 (92, 258)</t>
+          <t>194 (112, 320)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>106 (64, 162)</t>
+          <t>132 (79, 202)</t>
         </is>
       </c>
     </row>
@@ -2937,42 +2937,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>792 (490, 1232)</t>
+          <t>988 (606, 1545)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>611 (309, 1043)</t>
+          <t>767 (385, 1310)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>159 (92, 258)</t>
+          <t>194 (112, 320)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>106 (64, 162)</t>
+          <t>132 (79, 203)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>792 (490, 1232)</t>
+          <t>988 (606, 1545)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>611 (309, 1043)</t>
+          <t>767 (385, 1310)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>159 (92, 258)</t>
+          <t>194 (112, 320)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>106 (64, 162)</t>
+          <t>132 (79, 203)</t>
         </is>
       </c>
     </row>
@@ -2999,42 +2999,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>790 (487, 1234)</t>
+          <t>986 (603, 1546)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>609 (306, 1044)</t>
+          <t>766 (383, 1312)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>160 (92, 259)</t>
+          <t>194 (112, 320)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>106 (64, 163)</t>
+          <t>132 (79, 203)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>790 (487, 1234)</t>
+          <t>986 (603, 1546)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>609 (306, 1044)</t>
+          <t>766 (383, 1312)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>160 (92, 259)</t>
+          <t>194 (112, 320)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>106 (64, 163)</t>
+          <t>132 (79, 203)</t>
         </is>
       </c>
     </row>
@@ -3061,42 +3061,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>787 (483, 1235)</t>
+          <t>984 (599, 1547)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>606 (303, 1045)</t>
+          <t>763 (379, 1312)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>160 (92, 259)</t>
+          <t>194 (112, 320)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>106 (64, 163)</t>
+          <t>131 (79, 203)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>787 (483, 1235)</t>
+          <t>984 (599, 1547)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>606 (303, 1045)</t>
+          <t>763 (379, 1312)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>160 (92, 259)</t>
+          <t>194 (112, 320)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>106 (64, 163)</t>
+          <t>131 (79, 203)</t>
         </is>
       </c>
     </row>
@@ -3123,42 +3123,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>783 (478, 1234)</t>
+          <t>980 (593, 1547)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>602 (298, 1044)</t>
+          <t>760 (375, 1312)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>160 (91, 260)</t>
+          <t>194 (111, 320)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>106 (64, 163)</t>
+          <t>131 (79, 203)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>783 (478, 1234)</t>
+          <t>980 (593, 1547)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>602 (298, 1044)</t>
+          <t>760 (375, 1312)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>160 (91, 260)</t>
+          <t>194 (111, 320)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>106 (64, 163)</t>
+          <t>131 (79, 203)</t>
         </is>
       </c>
     </row>
@@ -3185,42 +3185,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>777 (472, 1233)</t>
+          <t>975 (587, 1546)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>596 (292, 1042)</t>
+          <t>755 (370, 1311)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>159 (91, 260)</t>
+          <t>193 (110, 320)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>106 (64, 164)</t>
+          <t>130 (78, 203)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>777 (472, 1233)</t>
+          <t>975 (587, 1546)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>596 (292, 1042)</t>
+          <t>755 (370, 1311)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>159 (91, 260)</t>
+          <t>193 (110, 320)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>106 (64, 164)</t>
+          <t>130 (78, 203)</t>
         </is>
       </c>
     </row>
@@ -3247,42 +3247,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>771 (464, 1231)</t>
+          <t>968 (579, 1545)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>590 (286, 1040)</t>
+          <t>749 (364, 1310)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>159 (90, 260)</t>
+          <t>192 (110, 320)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>105 (63, 163)</t>
+          <t>130 (78, 202)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>771 (464, 1231)</t>
+          <t>968 (579, 1545)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>590 (286, 1040)</t>
+          <t>749 (364, 1310)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>159 (90, 260)</t>
+          <t>192 (110, 320)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>105 (63, 163)</t>
+          <t>130 (78, 202)</t>
         </is>
       </c>
     </row>
@@ -3309,42 +3309,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>764 (456, 1228)</t>
+          <t>960 (571, 1543)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>584 (280, 1037)</t>
+          <t>742 (358, 1308)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>158 (90, 260)</t>
+          <t>191 (109, 320)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>105 (63, 163)</t>
+          <t>129 (77, 202)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>764 (456, 1228)</t>
+          <t>960 (571, 1543)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>584 (280, 1037)</t>
+          <t>742 (358, 1308)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>158 (90, 260)</t>
+          <t>191 (109, 320)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>105 (63, 163)</t>
+          <t>129 (77, 202)</t>
         </is>
       </c>
     </row>
@@ -3371,42 +3371,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>756 (448, 1225)</t>
+          <t>952 (561, 1541)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>577 (273, 1033)</t>
+          <t>734 (351, 1306)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>157 (89, 259)</t>
+          <t>190 (107, 319)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>104 (62, 163)</t>
+          <t>128 (76, 202)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>756 (448, 1225)</t>
+          <t>952 (561, 1541)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>577 (273, 1033)</t>
+          <t>734 (351, 1306)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>157 (89, 259)</t>
+          <t>190 (107, 319)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>104 (62, 163)</t>
+          <t>128 (76, 202)</t>
         </is>
       </c>
     </row>
@@ -3433,42 +3433,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>748 (439, 1222)</t>
+          <t>942 (551, 1539)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>569 (266, 1029)</t>
+          <t>725 (343, 1303)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>156 (88, 259)</t>
+          <t>189 (106, 318)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>103 (61, 162)</t>
+          <t>127 (75, 201)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>748 (439, 1222)</t>
+          <t>942 (551, 1539)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>569 (266, 1029)</t>
+          <t>725 (343, 1303)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>156 (88, 259)</t>
+          <t>189 (106, 318)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>103 (61, 162)</t>
+          <t>127 (75, 201)</t>
         </is>
       </c>
     </row>
@@ -3495,42 +3495,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>739 (429, 1217)</t>
+          <t>933 (540, 1536)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>562 (258, 1025)</t>
+          <t>716 (336, 1300)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>154 (86, 258)</t>
+          <t>187 (105, 318)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>102 (60, 162)</t>
+          <t>126 (74, 201)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>739 (429, 1217)</t>
+          <t>933 (540, 1536)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>562 (258, 1025)</t>
+          <t>716 (336, 1300)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>154 (86, 258)</t>
+          <t>187 (105, 318)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>102 (60, 162)</t>
+          <t>126 (74, 201)</t>
         </is>
       </c>
     </row>
@@ -3557,42 +3557,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>829 (515, 1271)</t>
+          <t>1022 (623, 1619)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>640 (328, 1077)</t>
+          <t>779 (382, 1365)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>165 (96, 267)</t>
+          <t>209 (118, 350)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>111 (68, 169)</t>
+          <t>140 (84, 219)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>829 (515, 1271)</t>
+          <t>1022 (623, 1619)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>640 (328, 1077)</t>
+          <t>779 (382, 1365)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>165 (96, 267)</t>
+          <t>209 (118, 350)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>111 (68, 169)</t>
+          <t>140 (84, 219)</t>
         </is>
       </c>
     </row>
@@ -3619,42 +3619,42 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>830 (516, 1274)</t>
+          <t>1020 (623, 1614)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>642 (328, 1080)</t>
+          <t>777 (382, 1360)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>165 (96, 267)</t>
+          <t>208 (118, 348)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>111 (68, 169)</t>
+          <t>139 (84, 217)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>830 (516, 1274)</t>
+          <t>1020 (623, 1614)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>642 (328, 1080)</t>
+          <t>777 (382, 1360)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>165 (96, 267)</t>
+          <t>208 (118, 348)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>111 (68, 169)</t>
+          <t>139 (84, 217)</t>
         </is>
       </c>
     </row>
@@ -3681,42 +3681,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>830 (515, 1277)</t>
+          <t>1017 (621, 1609)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>642 (328, 1083)</t>
+          <t>776 (382, 1356)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>166 (97, 267)</t>
+          <t>208 (117, 346)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>112 (69, 169)</t>
+          <t>138 (83, 216)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>830 (515, 1277)</t>
+          <t>1017 (621, 1609)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>642 (328, 1083)</t>
+          <t>776 (382, 1356)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>166 (97, 267)</t>
+          <t>208 (117, 346)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>112 (69, 169)</t>
+          <t>138 (83, 216)</t>
         </is>
       </c>
     </row>
@@ -3743,42 +3743,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>830 (514, 1279)</t>
+          <t>1015 (619, 1605)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>641 (326, 1085)</t>
+          <t>775 (381, 1352)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>166 (97, 267)</t>
+          <t>207 (117, 344)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>112 (69, 170)</t>
+          <t>138 (83, 215)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>830 (514, 1279)</t>
+          <t>1015 (619, 1605)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>641 (326, 1085)</t>
+          <t>775 (381, 1352)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>166 (97, 267)</t>
+          <t>207 (117, 344)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>112 (69, 170)</t>
+          <t>138 (83, 215)</t>
         </is>
       </c>
     </row>
@@ -3805,42 +3805,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>828 (511, 1281)</t>
+          <t>1011 (616, 1601)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>640 (324, 1086)</t>
+          <t>772 (380, 1348)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>166 (97, 268)</t>
+          <t>206 (117, 343)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>112 (69, 170)</t>
+          <t>137 (83, 215)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>828 (511, 1281)</t>
+          <t>1011 (616, 1601)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>640 (324, 1086)</t>
+          <t>772 (380, 1348)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>166 (97, 268)</t>
+          <t>206 (117, 343)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>112 (69, 170)</t>
+          <t>137 (83, 215)</t>
         </is>
       </c>
     </row>
@@ -3867,42 +3867,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>826 (507, 1281)</t>
+          <t>1006 (611, 1597)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>637 (320, 1086)</t>
+          <t>768 (376, 1345)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>166 (97, 268)</t>
+          <t>205 (116, 342)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>112 (69, 170)</t>
+          <t>137 (82, 214)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>826 (507, 1281)</t>
+          <t>1006 (611, 1597)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>637 (320, 1086)</t>
+          <t>768 (376, 1345)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>166 (97, 268)</t>
+          <t>205 (116, 342)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>112 (69, 170)</t>
+          <t>137 (82, 214)</t>
         </is>
       </c>
     </row>
@@ -3929,42 +3929,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>821 (502, 1280)</t>
+          <t>999 (605, 1592)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>633 (315, 1085)</t>
+          <t>763 (372, 1340)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>166 (97, 268)</t>
+          <t>205 (116, 340)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>112 (69, 171)</t>
+          <t>136 (82, 213)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>821 (502, 1280)</t>
+          <t>999 (605, 1592)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>633 (315, 1085)</t>
+          <t>763 (372, 1340)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>166 (97, 268)</t>
+          <t>205 (116, 340)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>112 (69, 171)</t>
+          <t>136 (82, 213)</t>
         </is>
       </c>
     </row>
@@ -3991,42 +3991,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>816 (496, 1278)</t>
+          <t>992 (597, 1587)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>628 (310, 1083)</t>
+          <t>756 (366, 1335)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>166 (96, 269)</t>
+          <t>204 (115, 339)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>112 (69, 171)</t>
+          <t>135 (81, 212)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>816 (496, 1278)</t>
+          <t>992 (597, 1587)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>628 (310, 1083)</t>
+          <t>756 (366, 1335)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>166 (96, 269)</t>
+          <t>204 (115, 339)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>112 (69, 171)</t>
+          <t>135 (81, 212)</t>
         </is>
       </c>
     </row>
@@ -4053,42 +4053,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>809 (488, 1275)</t>
+          <t>982 (588, 1581)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>622 (304, 1079)</t>
+          <t>747 (359, 1329)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>166 (96, 269)</t>
+          <t>203 (114, 338)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>111 (68, 171)</t>
+          <t>135 (81, 212)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>809 (488, 1275)</t>
+          <t>982 (588, 1581)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>622 (304, 1079)</t>
+          <t>747 (359, 1329)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>166 (96, 269)</t>
+          <t>203 (114, 338)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>111 (68, 171)</t>
+          <t>135 (81, 212)</t>
         </is>
       </c>
     </row>
@@ -4115,42 +4115,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>800 (480, 1270)</t>
+          <t>972 (578, 1572)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>614 (297, 1074)</t>
+          <t>737 (351, 1321)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>165 (95, 268)</t>
+          <t>201 (113, 337)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>111 (68, 170)</t>
+          <t>134 (80, 211)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>800 (480, 1270)</t>
+          <t>972 (578, 1572)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>614 (297, 1074)</t>
+          <t>737 (351, 1321)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>165 (95, 268)</t>
+          <t>201 (113, 337)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>111 (68, 170)</t>
+          <t>134 (80, 211)</t>
         </is>
       </c>
     </row>
@@ -4177,42 +4177,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>791 (471, 1264)</t>
+          <t>960 (566, 1564)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>605 (289, 1068)</t>
+          <t>726 (343, 1312)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>164 (94, 268)</t>
+          <t>200 (112, 336)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>110 (67, 170)</t>
+          <t>133 (79, 210)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>791 (471, 1264)</t>
+          <t>960 (566, 1564)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>605 (289, 1068)</t>
+          <t>726 (343, 1312)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>164 (94, 268)</t>
+          <t>200 (112, 336)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>110 (67, 170)</t>
+          <t>133 (79, 210)</t>
         </is>
       </c>
     </row>
@@ -4239,42 +4239,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>781 (461, 1258)</t>
+          <t>947 (554, 1555)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>596 (281, 1061)</t>
+          <t>714 (333, 1302)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>163 (93, 267)</t>
+          <t>198 (111, 334)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>109 (66, 169)</t>
+          <t>131 (78, 209)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>781 (461, 1258)</t>
+          <t>947 (554, 1555)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>596 (281, 1061)</t>
+          <t>714 (333, 1302)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>163 (93, 267)</t>
+          <t>198 (111, 334)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>109 (66, 169)</t>
+          <t>131 (78, 209)</t>
         </is>
       </c>
     </row>
@@ -4301,42 +4301,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>770 (451, 1250)</t>
+          <t>932 (540, 1543)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>586 (273, 1053)</t>
+          <t>701 (323, 1292)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>162 (92, 267)</t>
+          <t>196 (109, 333)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>108 (65, 168)</t>
+          <t>130 (77, 207)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>770 (451, 1250)</t>
+          <t>932 (540, 1543)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>586 (273, 1053)</t>
+          <t>701 (323, 1292)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>162 (92, 267)</t>
+          <t>196 (109, 333)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>108 (65, 168)</t>
+          <t>130 (77, 207)</t>
         </is>
       </c>
     </row>
@@ -4363,42 +4363,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>758 (440, 1243)</t>
+          <t>917 (526, 1531)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>576 (264, 1045)</t>
+          <t>688 (313, 1280)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>160 (90, 265)</t>
+          <t>194 (107, 331)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>107 (64, 167)</t>
+          <t>128 (75, 206)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>758 (440, 1243)</t>
+          <t>917 (526, 1531)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>576 (264, 1045)</t>
+          <t>688 (313, 1280)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>160 (90, 265)</t>
+          <t>194 (107, 331)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>107 (64, 167)</t>
+          <t>128 (75, 206)</t>
         </is>
       </c>
     </row>
